--- a/data/arhg/arhgspec.xlsx
+++ b/data/arhg/arhgspec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\kanai\adhoc_analysis\data\arhg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF054D06-F498-426C-B6B8-C867D0B4C9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A4840-B99F-4641-92C3-F7A53AB870ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63495" yWindow="13665" windowWidth="21495" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64125" yWindow="13950" windowWidth="21495" windowHeight="11145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hg" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>253.65199999999999</v>
       </c>
@@ -388,29 +397,33 @@
         <f>A1*5</f>
         <v>1268.26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1">
+        <f>A1*6</f>
+        <v>1521.9119999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>296.72800000000001</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E8" si="0">A2*2</f>
+        <f t="shared" ref="B2:B12" si="0">A2*2</f>
         <v>593.45600000000002</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C8" si="1">A2*3</f>
+        <f t="shared" ref="C2:C7" si="1">A2*3</f>
         <v>890.18399999999997</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D8" si="2">A2*4</f>
+        <f t="shared" ref="D2:D9" si="2">A2*4</f>
         <v>1186.912</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E8" si="3">A2*5</f>
+        <f t="shared" ref="E2:E9" si="3">A2*5</f>
         <v>1483.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>302.14999999999998</v>
       </c>
@@ -431,7 +444,7 @@
         <v>1510.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>313.15499999999997</v>
       </c>
@@ -452,7 +465,7 @@
         <v>1565.7749999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>334.14800000000002</v>
       </c>
@@ -473,7 +486,7 @@
         <v>1670.7400000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>365.01499999999999</v>
       </c>
@@ -494,7 +507,7 @@
         <v>1825.0749999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>404.65600000000001</v>
       </c>
@@ -515,25 +528,115 @@
         <v>2023.28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
+        <v>407.78300000000002</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>815.56600000000003</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C9" si="4">A8*3</f>
+        <v>1223.3490000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="5">A8*4</f>
+        <v>1631.1320000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="6">A8*5</f>
+        <v>2038.915</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>435.83300000000003</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>871.66600000000005</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
+      <c r="C9">
+        <f t="shared" si="4"/>
         <v>1307.499</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="2"/>
         <v>1743.3320000000001</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="3"/>
         <v>2179.165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>546.07399999999996</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1092.1479999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C12" si="7">A10*3</f>
+        <v>1638.2219999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D12" si="8">A10*4</f>
+        <v>2184.2959999999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="9">A10*5</f>
+        <v>2730.37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>576.96</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1153.92</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="7"/>
+        <v>1730.88</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="8"/>
+        <v>2307.84</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="9"/>
+        <v>2884.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>579.06600000000003</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1158.1320000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="7"/>
+        <v>1737.1980000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="8"/>
+        <v>2316.2640000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="9"/>
+        <v>2895.33</v>
       </c>
     </row>
   </sheetData>
@@ -546,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A3885A-9A66-46D9-9612-1A43FC2BD03F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
